--- a/nba2k26_editor/Offsets/LeagueData.xlsx
+++ b/nba2k26_editor/Offsets/LeagueData.xlsx
@@ -478,7 +478,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>110686816</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>130958888</t>
+          <t>130958936</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>130959488</t>
+          <t>130959536</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>December 6th, 2025</t>
+          <t>December 17th, 2025</t>
         </is>
       </c>
     </row>
